--- a/models/regression_model_5m/pycaret_tables.xlsx
+++ b/models/regression_model_5m/pycaret_tables.xlsx
@@ -586,7 +586,7 @@
         <v>0.1006</v>
       </c>
       <c r="I2">
-        <v>0.08400000000000001</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -615,7 +615,7 @@
         <v>0.1089</v>
       </c>
       <c r="I3">
-        <v>0.052</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -644,7 +644,7 @@
         <v>0.1212</v>
       </c>
       <c r="I4">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -673,7 +673,7 @@
         <v>0.1181</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -702,7 +702,7 @@
         <v>0.1341</v>
       </c>
       <c r="I6">
-        <v>0.046</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -731,7 +731,7 @@
         <v>0.1536</v>
       </c>
       <c r="I7">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -760,7 +760,7 @@
         <v>0.1615</v>
       </c>
       <c r="I8">
-        <v>1.066</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -789,7 +789,7 @@
         <v>0.1291</v>
       </c>
       <c r="I9">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -818,7 +818,7 @@
         <v>0.1515</v>
       </c>
       <c r="I10">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -847,7 +847,7 @@
         <v>0.1427</v>
       </c>
       <c r="I11">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -876,7 +876,7 @@
         <v>0.1642</v>
       </c>
       <c r="I12">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -905,7 +905,7 @@
         <v>0.1633</v>
       </c>
       <c r="I13">
-        <v>0.614</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -934,7 +934,7 @@
         <v>0.168</v>
       </c>
       <c r="I14">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -963,7 +963,7 @@
         <v>0.1897</v>
       </c>
       <c r="I15">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -992,7 +992,7 @@
         <v>0.2598</v>
       </c>
       <c r="I16">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1021,7 +1021,7 @@
         <v>0.3136</v>
       </c>
       <c r="I17">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1050,7 +1050,7 @@
         <v>0.4788</v>
       </c>
       <c r="I18">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1188,22 +1188,22 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>3.0288</v>
+        <v>1.3609</v>
       </c>
       <c r="D2">
-        <v>18.0729</v>
+        <v>4.1832</v>
       </c>
       <c r="E2">
-        <v>4.2512</v>
+        <v>2.0453</v>
       </c>
       <c r="F2">
-        <v>0.9681999999999999</v>
+        <v>0.9937</v>
       </c>
       <c r="G2">
-        <v>0.0755</v>
+        <v>0.0376</v>
       </c>
       <c r="H2">
-        <v>0.0548</v>
+        <v>0.0236</v>
       </c>
     </row>
   </sheetData>

--- a/models/regression_model_5m/pycaret_tables.xlsx
+++ b/models/regression_model_5m/pycaret_tables.xlsx
@@ -62,39 +62,39 @@
     <t>rf</t>
   </si>
   <si>
+    <t>lr</t>
+  </si>
+  <si>
     <t>ada</t>
   </si>
   <si>
     <t>ridge</t>
   </si>
   <si>
-    <t>lr</t>
+    <t>br</t>
+  </si>
+  <si>
+    <t>knn</t>
+  </si>
+  <si>
+    <t>huber</t>
   </si>
   <si>
     <t>dt</t>
   </si>
   <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>knn</t>
-  </si>
-  <si>
-    <t>huber</t>
-  </si>
-  <si>
     <t>lasso</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
+    <t>par</t>
+  </si>
+  <si>
     <t>omp</t>
   </si>
   <si>
-    <t>par</t>
-  </si>
-  <si>
     <t>llar</t>
   </si>
   <si>
@@ -116,37 +116,37 @@
     <t>Random Forest Regressor</t>
   </si>
   <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
     <t>AdaBoost Regressor</t>
   </si>
   <si>
     <t>Ridge Regression</t>
   </si>
   <si>
-    <t>Linear Regression</t>
+    <t>Bayesian Ridge</t>
+  </si>
+  <si>
+    <t>K Neighbors Regressor</t>
+  </si>
+  <si>
+    <t>Huber Regressor</t>
   </si>
   <si>
     <t>Decision Tree Regressor</t>
   </si>
   <si>
-    <t>Bayesian Ridge</t>
-  </si>
-  <si>
-    <t>K Neighbors Regressor</t>
-  </si>
-  <si>
-    <t>Huber Regressor</t>
-  </si>
-  <si>
     <t>Lasso Regression</t>
   </si>
   <si>
     <t>Elastic Net</t>
   </si>
   <si>
+    <t>Passive Aggressive Regressor</t>
+  </si>
+  <si>
     <t>Orthogonal Matching Pursuit</t>
-  </si>
-  <si>
-    <t>Passive Aggressive Regressor</t>
   </si>
   <si>
     <t>Lasso Least Angle Regression</t>
@@ -568,25 +568,25 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>5.5252</v>
+        <v>4.9968</v>
       </c>
       <c r="D2">
-        <v>78.6281</v>
+        <v>59.8245</v>
       </c>
       <c r="E2">
-        <v>8.716699999999999</v>
+        <v>7.6199</v>
       </c>
       <c r="F2">
-        <v>0.8742</v>
+        <v>0.9117</v>
       </c>
       <c r="G2">
-        <v>0.1426</v>
+        <v>0.1297</v>
       </c>
       <c r="H2">
-        <v>0.1006</v>
+        <v>0.0936</v>
       </c>
       <c r="I2">
-        <v>0.062</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -597,25 +597,25 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>6.0646</v>
+        <v>6.118</v>
       </c>
       <c r="D3">
-        <v>84.1319</v>
+        <v>82.0008</v>
       </c>
       <c r="E3">
-        <v>9.0456</v>
+        <v>8.9213</v>
       </c>
       <c r="F3">
-        <v>0.8676</v>
+        <v>0.8837</v>
       </c>
       <c r="G3">
-        <v>0.149</v>
+        <v>0.1429</v>
       </c>
       <c r="H3">
-        <v>0.1089</v>
+        <v>0.1087</v>
       </c>
       <c r="I3">
-        <v>0.044</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -626,25 +626,25 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>6.6879</v>
+        <v>6.876</v>
       </c>
       <c r="D4">
-        <v>102.6941</v>
+        <v>99.9609</v>
       </c>
       <c r="E4">
-        <v>10.0248</v>
+        <v>9.9526</v>
       </c>
       <c r="F4">
-        <v>0.8377</v>
+        <v>0.8537</v>
       </c>
       <c r="G4">
-        <v>0.1634</v>
+        <v>0.168</v>
       </c>
       <c r="H4">
-        <v>0.1212</v>
+        <v>0.1286</v>
       </c>
       <c r="I4">
-        <v>0.028</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -655,25 +655,25 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>6.6499</v>
+        <v>6.4988</v>
       </c>
       <c r="D5">
-        <v>110.4087</v>
+        <v>106.8479</v>
       </c>
       <c r="E5">
-        <v>10.1602</v>
+        <v>10.1882</v>
       </c>
       <c r="F5">
-        <v>0.8235</v>
+        <v>0.8481</v>
       </c>
       <c r="G5">
-        <v>0.159</v>
+        <v>0.1549</v>
       </c>
       <c r="H5">
-        <v>0.1181</v>
+        <v>0.1129</v>
       </c>
       <c r="I5">
-        <v>0.08400000000000001</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -684,25 +684,25 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>7.2673</v>
+        <v>8.2555</v>
       </c>
       <c r="D6">
-        <v>109.826</v>
+        <v>116.1555</v>
       </c>
       <c r="E6">
-        <v>10.389</v>
+        <v>10.7242</v>
       </c>
       <c r="F6">
-        <v>0.8322000000000001</v>
+        <v>0.8254</v>
       </c>
       <c r="G6">
-        <v>0.1747</v>
+        <v>0.2079</v>
       </c>
       <c r="H6">
-        <v>0.1341</v>
+        <v>0.1598</v>
       </c>
       <c r="I6">
-        <v>0.036</v>
+        <v>1.586</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -713,25 +713,25 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>8.2471</v>
+        <v>7.579</v>
       </c>
       <c r="D7">
-        <v>130.0815</v>
+        <v>119.9101</v>
       </c>
       <c r="E7">
-        <v>11.2012</v>
+        <v>10.8098</v>
       </c>
       <c r="F7">
-        <v>0.7994</v>
+        <v>0.8293</v>
       </c>
       <c r="G7">
-        <v>0.204</v>
+        <v>0.1771</v>
       </c>
       <c r="H7">
-        <v>0.1536</v>
+        <v>0.1397</v>
       </c>
       <c r="I7">
-        <v>0.018</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -742,25 +742,25 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>8.428599999999999</v>
+        <v>8.289400000000001</v>
       </c>
       <c r="D8">
-        <v>129.048</v>
+        <v>124.7097</v>
       </c>
       <c r="E8">
-        <v>11.2367</v>
+        <v>10.9927</v>
       </c>
       <c r="F8">
-        <v>0.7954</v>
+        <v>0.8185</v>
       </c>
       <c r="G8">
-        <v>0.2422</v>
+        <v>0.1937</v>
       </c>
       <c r="H8">
-        <v>0.1615</v>
+        <v>0.1557</v>
       </c>
       <c r="I8">
-        <v>1.072</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -771,25 +771,25 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>7.084</v>
+        <v>8.3415</v>
       </c>
       <c r="D9">
-        <v>142.005</v>
+        <v>127.7446</v>
       </c>
       <c r="E9">
-        <v>11.2599</v>
+        <v>11.1211</v>
       </c>
       <c r="F9">
-        <v>0.7532</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G9">
-        <v>0.1826</v>
+        <v>0.194</v>
       </c>
       <c r="H9">
-        <v>0.1291</v>
+        <v>0.1565</v>
       </c>
       <c r="I9">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -800,25 +800,25 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>8.234999999999999</v>
+        <v>7.4425</v>
       </c>
       <c r="D10">
-        <v>136.2908</v>
+        <v>132.1817</v>
       </c>
       <c r="E10">
-        <v>11.4606</v>
+        <v>11.4265</v>
       </c>
       <c r="F10">
-        <v>0.7927</v>
+        <v>0.7977</v>
       </c>
       <c r="G10">
-        <v>0.1954</v>
+        <v>0.1845</v>
       </c>
       <c r="H10">
-        <v>0.1515</v>
+        <v>0.1376</v>
       </c>
       <c r="I10">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -829,25 +829,25 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>7.6432</v>
+        <v>8.849</v>
       </c>
       <c r="D11">
-        <v>147.8942</v>
+        <v>139.4408</v>
       </c>
       <c r="E11">
-        <v>11.7075</v>
+        <v>11.6839</v>
       </c>
       <c r="F11">
-        <v>0.7598</v>
+        <v>0.7879</v>
       </c>
       <c r="G11">
-        <v>0.1874</v>
+        <v>0.2144</v>
       </c>
       <c r="H11">
-        <v>0.1427</v>
+        <v>0.1697</v>
       </c>
       <c r="I11">
-        <v>0.02</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -858,25 +858,25 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>8.639099999999999</v>
+        <v>7.5852</v>
       </c>
       <c r="D12">
-        <v>142.0012</v>
+        <v>175.0359</v>
       </c>
       <c r="E12">
-        <v>11.7476</v>
+        <v>12.7388</v>
       </c>
       <c r="F12">
-        <v>0.7779</v>
+        <v>0.7221</v>
       </c>
       <c r="G12">
-        <v>0.2394</v>
+        <v>0.1996</v>
       </c>
       <c r="H12">
-        <v>0.1642</v>
+        <v>0.1248</v>
       </c>
       <c r="I12">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -887,25 +887,25 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>9.0282</v>
+        <v>9.288399999999999</v>
       </c>
       <c r="D13">
-        <v>171.2784</v>
+        <v>184.5868</v>
       </c>
       <c r="E13">
-        <v>12.8885</v>
+        <v>13.4314</v>
       </c>
       <c r="F13">
-        <v>0.744</v>
+        <v>0.7385</v>
       </c>
       <c r="G13">
-        <v>0.2033</v>
+        <v>0.215</v>
       </c>
       <c r="H13">
-        <v>0.1633</v>
+        <v>0.1723</v>
       </c>
       <c r="I13">
-        <v>0.504</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -916,22 +916,22 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>9.097</v>
+        <v>9.2974</v>
       </c>
       <c r="D14">
-        <v>180.861</v>
+        <v>197.8792</v>
       </c>
       <c r="E14">
-        <v>13.2569</v>
+        <v>13.9155</v>
       </c>
       <c r="F14">
-        <v>0.7292999999999999</v>
+        <v>0.7216</v>
       </c>
       <c r="G14">
-        <v>0.2104</v>
+        <v>0.2235</v>
       </c>
       <c r="H14">
-        <v>0.168</v>
+        <v>0.1773</v>
       </c>
       <c r="I14">
         <v>0.018</v>
@@ -945,25 +945,25 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>10.042</v>
+        <v>13.054</v>
       </c>
       <c r="D15">
-        <v>225.2154</v>
+        <v>278.8507</v>
       </c>
       <c r="E15">
-        <v>14.7334</v>
+        <v>16.5023</v>
       </c>
       <c r="F15">
-        <v>0.6632</v>
+        <v>0.5725</v>
       </c>
       <c r="G15">
-        <v>0.2397</v>
+        <v>0.3811</v>
       </c>
       <c r="H15">
-        <v>0.1897</v>
+        <v>0.2566</v>
       </c>
       <c r="I15">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -974,25 +974,25 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>12.6297</v>
+        <v>10.8279</v>
       </c>
       <c r="D16">
-        <v>247.2023</v>
+        <v>275.6453</v>
       </c>
       <c r="E16">
-        <v>15.0676</v>
+        <v>16.5513</v>
       </c>
       <c r="F16">
-        <v>0.6231</v>
+        <v>0.5948</v>
       </c>
       <c r="G16">
-        <v>0.3849</v>
+        <v>0.2679</v>
       </c>
       <c r="H16">
-        <v>0.2598</v>
+        <v>0.2152</v>
       </c>
       <c r="I16">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1003,25 +1003,25 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>15.3217</v>
+        <v>16.0314</v>
       </c>
       <c r="D17">
-        <v>347.0788</v>
+        <v>384.9043</v>
       </c>
       <c r="E17">
-        <v>18.3213</v>
+        <v>19.2115</v>
       </c>
       <c r="F17">
-        <v>0.5068</v>
+        <v>0.4872</v>
       </c>
       <c r="G17">
-        <v>0.326</v>
+        <v>0.3396</v>
       </c>
       <c r="H17">
-        <v>0.3136</v>
+        <v>0.3289</v>
       </c>
       <c r="I17">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1032,25 +1032,25 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>22.5379</v>
+        <v>23.0206</v>
       </c>
       <c r="D18">
-        <v>709.0244</v>
+        <v>751.0234</v>
       </c>
       <c r="E18">
-        <v>26.3472</v>
+        <v>27.055</v>
       </c>
       <c r="F18">
-        <v>-0.0259</v>
+        <v>-0.0271</v>
       </c>
       <c r="G18">
-        <v>0.4644</v>
+        <v>0.4748</v>
       </c>
       <c r="H18">
-        <v>0.4788</v>
+        <v>0.4905</v>
       </c>
       <c r="I18">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1061,25 +1061,25 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>167.1038</v>
+        <v>1534.4668</v>
       </c>
       <c r="D19">
-        <v>165845.0949</v>
+        <v>12717300.2025</v>
       </c>
       <c r="E19">
-        <v>226.5703</v>
+        <v>1853.9792</v>
       </c>
       <c r="F19">
-        <v>-284.024</v>
+        <v>-11817.093</v>
       </c>
       <c r="G19">
-        <v>1.042</v>
+        <v>2.1585</v>
       </c>
       <c r="H19">
-        <v>3.4634</v>
+        <v>33.9087</v>
       </c>
       <c r="I19">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
   </sheetData>
@@ -1126,22 +1126,22 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>5.2565</v>
+        <v>4.616</v>
       </c>
       <c r="D2">
-        <v>55.1623</v>
+        <v>35.8788</v>
       </c>
       <c r="E2">
-        <v>7.4271</v>
+        <v>5.9899</v>
       </c>
       <c r="F2">
-        <v>0.9029</v>
+        <v>0.9275</v>
       </c>
       <c r="G2">
-        <v>0.1255</v>
+        <v>0.097</v>
       </c>
       <c r="H2">
-        <v>0.0917</v>
+        <v>0.0755</v>
       </c>
     </row>
   </sheetData>
@@ -1188,22 +1188,22 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>1.3609</v>
+        <v>1.2967</v>
       </c>
       <c r="D2">
-        <v>4.1832</v>
+        <v>5.0315</v>
       </c>
       <c r="E2">
-        <v>2.0453</v>
+        <v>2.2431</v>
       </c>
       <c r="F2">
-        <v>0.9937</v>
+        <v>0.9925</v>
       </c>
       <c r="G2">
-        <v>0.0376</v>
+        <v>0.0553</v>
       </c>
       <c r="H2">
-        <v>0.0236</v>
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
@@ -1247,22 +1247,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.4071</v>
+        <v>4.3932</v>
       </c>
       <c r="C2">
-        <v>31.7031</v>
+        <v>52.4281</v>
       </c>
       <c r="D2">
-        <v>5.6305</v>
+        <v>7.2407</v>
       </c>
       <c r="E2">
-        <v>0.9454</v>
+        <v>0.9099</v>
       </c>
       <c r="F2">
-        <v>0.1046</v>
+        <v>0.1294</v>
       </c>
       <c r="G2">
-        <v>0.0864</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1270,22 +1270,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.5318</v>
+        <v>5.1252</v>
       </c>
       <c r="C3">
-        <v>80.7255</v>
+        <v>62.7556</v>
       </c>
       <c r="D3">
-        <v>8.9847</v>
+        <v>7.9218</v>
       </c>
       <c r="E3">
-        <v>0.9022</v>
+        <v>0.9256</v>
       </c>
       <c r="F3">
-        <v>0.1858</v>
+        <v>0.1255</v>
       </c>
       <c r="G3">
-        <v>0.1185</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1293,22 +1293,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.8002</v>
+        <v>6.5977</v>
       </c>
       <c r="C4">
-        <v>103.5126</v>
+        <v>112.8718</v>
       </c>
       <c r="D4">
-        <v>10.1741</v>
+        <v>10.6241</v>
       </c>
       <c r="E4">
-        <v>0.8284</v>
+        <v>0.8362000000000001</v>
       </c>
       <c r="F4">
-        <v>0.1652</v>
+        <v>0.2168</v>
       </c>
       <c r="G4">
-        <v>0.1128</v>
+        <v>0.1504</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1316,22 +1316,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.8209</v>
+        <v>6.2897</v>
       </c>
       <c r="C5">
-        <v>105.311</v>
+        <v>90.2957</v>
       </c>
       <c r="D5">
-        <v>10.2621</v>
+        <v>9.5024</v>
       </c>
       <c r="E5">
-        <v>0.8939</v>
+        <v>0.9165</v>
       </c>
       <c r="F5">
-        <v>0.119</v>
+        <v>0.1081</v>
       </c>
       <c r="G5">
-        <v>0.09370000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1339,22 +1339,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.5603</v>
+        <v>4.7812</v>
       </c>
       <c r="C6">
-        <v>99.8548</v>
+        <v>47.6051</v>
       </c>
       <c r="D6">
-        <v>9.992699999999999</v>
+        <v>6.8996</v>
       </c>
       <c r="E6">
-        <v>0.7758</v>
+        <v>0.8922</v>
       </c>
       <c r="F6">
-        <v>0.1638</v>
+        <v>0.1177</v>
       </c>
       <c r="G6">
-        <v>0.1188</v>
+        <v>0.0861</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1362,22 +1362,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.8241</v>
+        <v>5.4374</v>
       </c>
       <c r="C7">
-        <v>84.2214</v>
+        <v>73.1913</v>
       </c>
       <c r="D7">
-        <v>9.008800000000001</v>
+        <v>8.4377</v>
       </c>
       <c r="E7">
-        <v>0.8692</v>
+        <v>0.8961</v>
       </c>
       <c r="F7">
-        <v>0.1477</v>
+        <v>0.1395</v>
       </c>
       <c r="G7">
-        <v>0.1061</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1385,22 +1385,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.852</v>
+        <v>0.8592</v>
       </c>
       <c r="C8">
-        <v>27.6829</v>
+        <v>24.7458</v>
       </c>
       <c r="D8">
-        <v>1.7499</v>
+        <v>1.4127</v>
       </c>
       <c r="E8">
-        <v>0.0598</v>
+        <v>0.0319</v>
       </c>
       <c r="F8">
-        <v>0.0306</v>
+        <v>0.0393</v>
       </c>
       <c r="G8">
-        <v>0.0134</v>
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
@@ -1444,22 +1444,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.0525</v>
+        <v>4.9566</v>
       </c>
       <c r="C2">
-        <v>46.7403</v>
+        <v>43.9117</v>
       </c>
       <c r="D2">
-        <v>6.8367</v>
+        <v>6.6266</v>
       </c>
       <c r="E2">
-        <v>0.9195</v>
+        <v>0.9246</v>
       </c>
       <c r="F2">
-        <v>0.1192</v>
+        <v>0.1269</v>
       </c>
       <c r="G2">
-        <v>0.0956</v>
+        <v>0.09760000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1467,22 +1467,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.8367</v>
+        <v>5.1335</v>
       </c>
       <c r="C3">
-        <v>69.80710000000001</v>
+        <v>55.8462</v>
       </c>
       <c r="D3">
-        <v>8.3551</v>
+        <v>7.473</v>
       </c>
       <c r="E3">
-        <v>0.9154</v>
+        <v>0.9338</v>
       </c>
       <c r="F3">
-        <v>0.1748</v>
+        <v>0.1184</v>
       </c>
       <c r="G3">
-        <v>0.1208</v>
+        <v>0.0892</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.9756</v>
+        <v>7.0881</v>
       </c>
       <c r="C4">
-        <v>122.33</v>
+        <v>101.4404</v>
       </c>
       <c r="D4">
-        <v>11.0603</v>
+        <v>10.0718</v>
       </c>
       <c r="E4">
-        <v>0.7972</v>
+        <v>0.8528</v>
       </c>
       <c r="F4">
-        <v>0.1773</v>
+        <v>0.2202</v>
       </c>
       <c r="G4">
-        <v>0.1276</v>
+        <v>0.1593</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.3583</v>
+        <v>5.8984</v>
       </c>
       <c r="C5">
-        <v>49.4606</v>
+        <v>63.3446</v>
       </c>
       <c r="D5">
-        <v>7.0328</v>
+        <v>7.9589</v>
       </c>
       <c r="E5">
-        <v>0.9502</v>
+        <v>0.9414</v>
       </c>
       <c r="F5">
-        <v>0.0946</v>
+        <v>0.1018</v>
       </c>
       <c r="G5">
-        <v>0.08</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.5324</v>
+        <v>4.9023</v>
       </c>
       <c r="C6">
-        <v>74.98560000000001</v>
+        <v>51.0342</v>
       </c>
       <c r="D6">
-        <v>8.6594</v>
+        <v>7.1438</v>
       </c>
       <c r="E6">
-        <v>0.8317</v>
+        <v>0.8844</v>
       </c>
       <c r="F6">
-        <v>0.1579</v>
+        <v>0.1328</v>
       </c>
       <c r="G6">
-        <v>0.1205</v>
+        <v>0.0936</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.9511</v>
+        <v>5.5958</v>
       </c>
       <c r="C7">
-        <v>72.6647</v>
+        <v>63.1154</v>
       </c>
       <c r="D7">
-        <v>8.3889</v>
+        <v>7.8548</v>
       </c>
       <c r="E7">
-        <v>0.8828</v>
+        <v>0.9074</v>
       </c>
       <c r="F7">
-        <v>0.1448</v>
+        <v>0.14</v>
       </c>
       <c r="G7">
-        <v>0.1089</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1582,22 +1582,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.7155</v>
+        <v>0.8273</v>
       </c>
       <c r="C8">
-        <v>27.1687</v>
+        <v>20.1813</v>
       </c>
       <c r="D8">
-        <v>1.5139</v>
+        <v>1.1904</v>
       </c>
       <c r="E8">
-        <v>0.0581</v>
+        <v>0.0337</v>
       </c>
       <c r="F8">
-        <v>0.0326</v>
+        <v>0.0414</v>
       </c>
       <c r="G8">
-        <v>0.0181</v>
+        <v>0.0274</v>
       </c>
     </row>
   </sheetData>
@@ -1641,22 +1641,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.2371</v>
+        <v>4.2929</v>
       </c>
       <c r="C2">
-        <v>58.9609</v>
+        <v>34.1549</v>
       </c>
       <c r="D2">
-        <v>7.6786</v>
+        <v>5.8442</v>
       </c>
       <c r="E2">
-        <v>0.8985</v>
+        <v>0.9413</v>
       </c>
       <c r="F2">
-        <v>0.1364</v>
+        <v>0.1136</v>
       </c>
       <c r="G2">
-        <v>0.0998</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1664,22 +1664,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.5656</v>
+        <v>6.035</v>
       </c>
       <c r="C3">
-        <v>61.5199</v>
+        <v>84.5171</v>
       </c>
       <c r="D3">
-        <v>7.8435</v>
+        <v>9.193300000000001</v>
       </c>
       <c r="E3">
-        <v>0.9254</v>
+        <v>0.8999</v>
       </c>
       <c r="F3">
-        <v>0.1693</v>
+        <v>0.1418</v>
       </c>
       <c r="G3">
-        <v>0.1177</v>
+        <v>0.1088</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1687,22 +1687,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.2369</v>
+        <v>5.7199</v>
       </c>
       <c r="C4">
-        <v>115.828</v>
+        <v>61.085</v>
       </c>
       <c r="D4">
-        <v>10.7623</v>
+        <v>7.8157</v>
       </c>
       <c r="E4">
-        <v>0.8080000000000001</v>
+        <v>0.9113</v>
       </c>
       <c r="F4">
-        <v>0.1695</v>
+        <v>0.1666</v>
       </c>
       <c r="G4">
-        <v>0.1124</v>
+        <v>0.1214</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1710,22 +1710,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.3685</v>
+        <v>7.2851</v>
       </c>
       <c r="C5">
-        <v>105.3718</v>
+        <v>105.452</v>
       </c>
       <c r="D5">
-        <v>10.2651</v>
+        <v>10.269</v>
       </c>
       <c r="E5">
-        <v>0.8938</v>
+        <v>0.9025</v>
       </c>
       <c r="F5">
-        <v>0.1412</v>
+        <v>0.139</v>
       </c>
       <c r="G5">
-        <v>0.1151</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1733,22 +1733,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.5425</v>
+        <v>5.8976</v>
       </c>
       <c r="C6">
-        <v>111.6702</v>
+        <v>71.23860000000001</v>
       </c>
       <c r="D6">
-        <v>10.5674</v>
+        <v>8.440300000000001</v>
       </c>
       <c r="E6">
-        <v>0.7493</v>
+        <v>0.8387</v>
       </c>
       <c r="F6">
-        <v>0.1667</v>
+        <v>0.1462</v>
       </c>
       <c r="G6">
-        <v>0.1334</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1756,22 +1756,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>6.3901</v>
+        <v>5.8461</v>
       </c>
       <c r="C7">
-        <v>90.67019999999999</v>
+        <v>71.2895</v>
       </c>
       <c r="D7">
-        <v>9.423400000000001</v>
+        <v>8.3125</v>
       </c>
       <c r="E7">
-        <v>0.855</v>
+        <v>0.8987000000000001</v>
       </c>
       <c r="F7">
-        <v>0.1566</v>
+        <v>0.1414</v>
       </c>
       <c r="G7">
-        <v>0.1157</v>
+        <v>0.1072</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1779,22 +1779,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.9293</v>
+        <v>0.9526</v>
       </c>
       <c r="C8">
-        <v>25.081</v>
+        <v>23.7704</v>
       </c>
       <c r="D8">
-        <v>1.3675</v>
+        <v>1.4805</v>
       </c>
       <c r="E8">
-        <v>0.0659</v>
+        <v>0.0335</v>
       </c>
       <c r="F8">
-        <v>0.0147</v>
+        <v>0.0169</v>
       </c>
       <c r="G8">
-        <v>0.0108</v>
+        <v>0.0107</v>
       </c>
     </row>
   </sheetData>
@@ -1838,22 +1838,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.5998</v>
+        <v>4.8016</v>
       </c>
       <c r="C2">
-        <v>37.8223</v>
+        <v>54.4375</v>
       </c>
       <c r="D2">
-        <v>6.15</v>
+        <v>7.3782</v>
       </c>
       <c r="E2">
-        <v>0.9349</v>
+        <v>0.9065</v>
       </c>
       <c r="F2">
-        <v>0.1167</v>
+        <v>0.1314</v>
       </c>
       <c r="G2">
-        <v>0.09229999999999999</v>
+        <v>0.0936</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1861,22 +1861,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.8656</v>
+        <v>5.1733</v>
       </c>
       <c r="C3">
-        <v>85.3648</v>
+        <v>64.73390000000001</v>
       </c>
       <c r="D3">
-        <v>9.2393</v>
+        <v>8.0457</v>
       </c>
       <c r="E3">
-        <v>0.8965</v>
+        <v>0.9233</v>
       </c>
       <c r="F3">
-        <v>0.1909</v>
+        <v>0.1296</v>
       </c>
       <c r="G3">
-        <v>0.1236</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1884,22 +1884,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.0869</v>
+        <v>6.5292</v>
       </c>
       <c r="C4">
-        <v>120.5734</v>
+        <v>107.0817</v>
       </c>
       <c r="D4">
-        <v>10.9806</v>
+        <v>10.348</v>
       </c>
       <c r="E4">
-        <v>0.8002</v>
+        <v>0.8446</v>
       </c>
       <c r="F4">
-        <v>0.1768</v>
+        <v>0.2145</v>
       </c>
       <c r="G4">
-        <v>0.1203</v>
+        <v>0.1466</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1907,22 +1907,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.121</v>
+        <v>6.3799</v>
       </c>
       <c r="C5">
-        <v>139.9439</v>
+        <v>90.5117</v>
       </c>
       <c r="D5">
-        <v>11.8298</v>
+        <v>9.5138</v>
       </c>
       <c r="E5">
-        <v>0.859</v>
+        <v>0.9163</v>
       </c>
       <c r="F5">
-        <v>0.1352</v>
+        <v>0.113</v>
       </c>
       <c r="G5">
-        <v>0.09420000000000001</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1930,22 +1930,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.7348</v>
+        <v>5.1982</v>
       </c>
       <c r="C6">
-        <v>90.26439999999999</v>
+        <v>82.5625</v>
       </c>
       <c r="D6">
-        <v>9.5008</v>
+        <v>9.086399999999999</v>
       </c>
       <c r="E6">
-        <v>0.7974</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F6">
-        <v>0.1557</v>
+        <v>0.1487</v>
       </c>
       <c r="G6">
-        <v>0.1201</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1953,22 +1953,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>6.0817</v>
+        <v>5.6164</v>
       </c>
       <c r="C7">
-        <v>94.7938</v>
+        <v>79.8655</v>
       </c>
       <c r="D7">
-        <v>9.540100000000001</v>
+        <v>8.8744</v>
       </c>
       <c r="E7">
-        <v>0.8576</v>
+        <v>0.8807</v>
       </c>
       <c r="F7">
-        <v>0.1551</v>
+        <v>0.1474</v>
       </c>
       <c r="G7">
-        <v>0.1101</v>
+        <v>0.1057</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1976,22 +1976,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.866</v>
+        <v>0.7002</v>
       </c>
       <c r="C8">
-        <v>34.8089</v>
+        <v>18.638</v>
       </c>
       <c r="D8">
-        <v>1.9444</v>
+        <v>1.0536</v>
       </c>
       <c r="E8">
-        <v>0.0537</v>
+        <v>0.0439</v>
       </c>
       <c r="F8">
-        <v>0.0269</v>
+        <v>0.0354</v>
       </c>
       <c r="G8">
-        <v>0.0138</v>
+        <v>0.0207</v>
       </c>
     </row>
   </sheetData>
@@ -2035,22 +2035,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.2941</v>
+        <v>7.2356</v>
       </c>
       <c r="C2">
-        <v>68.7702</v>
+        <v>83.6585</v>
       </c>
       <c r="D2">
-        <v>8.2928</v>
+        <v>9.1465</v>
       </c>
       <c r="E2">
-        <v>0.8816000000000001</v>
+        <v>0.8563</v>
       </c>
       <c r="F2">
-        <v>0.1548</v>
+        <v>0.2103</v>
       </c>
       <c r="G2">
-        <v>0.1245</v>
+        <v>0.1467</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2058,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.3759</v>
+        <v>7.396</v>
       </c>
       <c r="C3">
-        <v>95.1071</v>
+        <v>96.82940000000001</v>
       </c>
       <c r="D3">
-        <v>9.7523</v>
+        <v>9.840199999999999</v>
       </c>
       <c r="E3">
-        <v>0.8847</v>
+        <v>0.8853</v>
       </c>
       <c r="F3">
-        <v>0.1836</v>
+        <v>0.1864</v>
       </c>
       <c r="G3">
-        <v>0.1253</v>
+        <v>0.1543</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2081,22 +2081,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.0198</v>
+        <v>8.9513</v>
       </c>
       <c r="C4">
-        <v>169.5033</v>
+        <v>145.9504</v>
       </c>
       <c r="D4">
-        <v>13.0193</v>
+        <v>12.081</v>
       </c>
       <c r="E4">
-        <v>0.7191</v>
+        <v>0.7881</v>
       </c>
       <c r="F4">
-        <v>0.2039</v>
+        <v>0.2427</v>
       </c>
       <c r="G4">
-        <v>0.1494</v>
+        <v>0.1941</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.1821</v>
+        <v>9.169600000000001</v>
       </c>
       <c r="C5">
-        <v>130.4999</v>
+        <v>129.2794</v>
       </c>
       <c r="D5">
-        <v>11.4237</v>
+        <v>11.3701</v>
       </c>
       <c r="E5">
-        <v>0.8685</v>
+        <v>0.8804999999999999</v>
       </c>
       <c r="F5">
-        <v>0.1531</v>
+        <v>0.1757</v>
       </c>
       <c r="G5">
-        <v>0.1271</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2127,22 +2127,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.6353</v>
+        <v>8.524800000000001</v>
       </c>
       <c r="C6">
-        <v>85.2026</v>
+        <v>125.0595</v>
       </c>
       <c r="D6">
-        <v>9.230499999999999</v>
+        <v>11.183</v>
       </c>
       <c r="E6">
-        <v>0.8087</v>
+        <v>0.7168</v>
       </c>
       <c r="F6">
-        <v>0.1643</v>
+        <v>0.2243</v>
       </c>
       <c r="G6">
-        <v>0.1201</v>
+        <v>0.1565</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2150,22 +2150,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>7.1014</v>
+        <v>8.2555</v>
       </c>
       <c r="C7">
-        <v>109.8166</v>
+        <v>116.1554</v>
       </c>
       <c r="D7">
-        <v>10.3437</v>
+        <v>10.7242</v>
       </c>
       <c r="E7">
-        <v>0.8325</v>
+        <v>0.8254</v>
       </c>
       <c r="F7">
-        <v>0.1719</v>
+        <v>0.2079</v>
       </c>
       <c r="G7">
-        <v>0.1293</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2173,22 +2173,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.8254</v>
+        <v>0.7964</v>
       </c>
       <c r="C8">
-        <v>36.0481</v>
+        <v>22.6663</v>
       </c>
       <c r="D8">
-        <v>1.6805</v>
+        <v>1.0714</v>
       </c>
       <c r="E8">
-        <v>0.063</v>
+        <v>0.0644</v>
       </c>
       <c r="F8">
-        <v>0.0193</v>
+        <v>0.0244</v>
       </c>
       <c r="G8">
-        <v>0.0103</v>
+        <v>0.0176</v>
       </c>
     </row>
   </sheetData>
@@ -2232,22 +2232,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.7429</v>
+        <v>4.0504</v>
       </c>
       <c r="C2">
-        <v>40.1759</v>
+        <v>34.571</v>
       </c>
       <c r="D2">
-        <v>6.3384</v>
+        <v>5.8797</v>
       </c>
       <c r="E2">
-        <v>0.9308</v>
+        <v>0.9406</v>
       </c>
       <c r="F2">
-        <v>0.1155</v>
+        <v>0.1103</v>
       </c>
       <c r="G2">
-        <v>0.0927</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2255,22 +2255,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.1635</v>
+        <v>4.8233</v>
       </c>
       <c r="C3">
-        <v>64.8796</v>
+        <v>49.7678</v>
       </c>
       <c r="D3">
-        <v>8.0548</v>
+        <v>7.0546</v>
       </c>
       <c r="E3">
-        <v>0.9214</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="F3">
-        <v>0.173</v>
+        <v>0.1168</v>
       </c>
       <c r="G3">
-        <v>0.109</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2278,22 +2278,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.0722</v>
+        <v>6.2201</v>
       </c>
       <c r="C4">
-        <v>112.506</v>
+        <v>87.02460000000001</v>
       </c>
       <c r="D4">
-        <v>10.6069</v>
+        <v>9.3287</v>
       </c>
       <c r="E4">
-        <v>0.8135</v>
+        <v>0.8737</v>
       </c>
       <c r="F4">
-        <v>0.1689</v>
+        <v>0.2037</v>
       </c>
       <c r="G4">
-        <v>0.1161</v>
+        <v>0.1424</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2301,22 +2301,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.396</v>
+        <v>6.2923</v>
       </c>
       <c r="C5">
-        <v>87.09910000000001</v>
+        <v>74.2009</v>
       </c>
       <c r="D5">
-        <v>9.332700000000001</v>
+        <v>8.614000000000001</v>
       </c>
       <c r="E5">
-        <v>0.9123</v>
+        <v>0.9314</v>
       </c>
       <c r="F5">
-        <v>0.1139</v>
+        <v>0.11</v>
       </c>
       <c r="G5">
-        <v>0.093</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2324,22 +2324,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.4884</v>
+        <v>4.5813</v>
       </c>
       <c r="C6">
-        <v>78.98609999999999</v>
+        <v>55.602</v>
       </c>
       <c r="D6">
-        <v>8.8874</v>
+        <v>7.4567</v>
       </c>
       <c r="E6">
-        <v>0.8227</v>
+        <v>0.8741</v>
       </c>
       <c r="F6">
-        <v>0.1497</v>
+        <v>0.1326</v>
       </c>
       <c r="G6">
-        <v>0.1175</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2347,22 +2347,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.7726</v>
+        <v>5.1935</v>
       </c>
       <c r="C7">
-        <v>76.7294</v>
+        <v>60.2333</v>
       </c>
       <c r="D7">
-        <v>8.644</v>
+        <v>7.6667</v>
       </c>
       <c r="E7">
-        <v>0.8801</v>
+        <v>0.9122</v>
       </c>
       <c r="F7">
-        <v>0.1442</v>
+        <v>0.1347</v>
       </c>
       <c r="G7">
-        <v>0.1057</v>
+        <v>0.0983</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2370,22 +2370,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.696</v>
+        <v>0.9033</v>
       </c>
       <c r="C8">
-        <v>23.9548</v>
+        <v>18.4521</v>
       </c>
       <c r="D8">
-        <v>1.4177</v>
+        <v>1.206</v>
       </c>
       <c r="E8">
-        <v>0.0511</v>
+        <v>0.0314</v>
       </c>
       <c r="F8">
-        <v>0.0253</v>
+        <v>0.0354</v>
       </c>
       <c r="G8">
-        <v>0.0108</v>
+        <v>0.0227</v>
       </c>
     </row>
   </sheetData>
@@ -2429,22 +2429,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.8181</v>
+        <v>3.973</v>
       </c>
       <c r="C2">
-        <v>28.4759</v>
+        <v>30.5412</v>
       </c>
       <c r="D2">
-        <v>5.3363</v>
+        <v>5.5264</v>
       </c>
       <c r="E2">
-        <v>0.951</v>
+        <v>0.9475</v>
       </c>
       <c r="F2">
-        <v>0.09229999999999999</v>
+        <v>0.1055</v>
       </c>
       <c r="G2">
-        <v>0.0722</v>
+        <v>0.0771</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2452,22 +2452,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.7222</v>
+        <v>3.8158</v>
       </c>
       <c r="C3">
-        <v>68.37520000000001</v>
+        <v>25.3678</v>
       </c>
       <c r="D3">
-        <v>8.2689</v>
+        <v>5.0367</v>
       </c>
       <c r="E3">
-        <v>0.9171</v>
+        <v>0.9699</v>
       </c>
       <c r="F3">
-        <v>0.1853</v>
+        <v>0.0897</v>
       </c>
       <c r="G3">
-        <v>0.1114</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2475,22 +2475,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.005</v>
+        <v>6.0112</v>
       </c>
       <c r="C4">
-        <v>129.642</v>
+        <v>80.38290000000001</v>
       </c>
       <c r="D4">
-        <v>11.386</v>
+        <v>8.9656</v>
       </c>
       <c r="E4">
-        <v>0.7851</v>
+        <v>0.8833</v>
       </c>
       <c r="F4">
-        <v>0.1791</v>
+        <v>0.1875</v>
       </c>
       <c r="G4">
-        <v>0.1191</v>
+        <v>0.1291</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2498,22 +2498,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.4544</v>
+        <v>5.5345</v>
       </c>
       <c r="C5">
-        <v>132.9675</v>
+        <v>58.5784</v>
       </c>
       <c r="D5">
-        <v>11.5312</v>
+        <v>7.6537</v>
       </c>
       <c r="E5">
-        <v>0.866</v>
+        <v>0.9458</v>
       </c>
       <c r="F5">
-        <v>0.1319</v>
+        <v>0.096</v>
       </c>
       <c r="G5">
-        <v>0.1008</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2521,22 +2521,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.15</v>
+        <v>3.7151</v>
       </c>
       <c r="C6">
-        <v>71.77549999999999</v>
+        <v>27.9359</v>
       </c>
       <c r="D6">
-        <v>8.472</v>
+        <v>5.2854</v>
       </c>
       <c r="E6">
-        <v>0.8389</v>
+        <v>0.9367</v>
       </c>
       <c r="F6">
-        <v>0.1539</v>
+        <v>0.0999</v>
       </c>
       <c r="G6">
-        <v>0.112</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2544,22 +2544,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.6299</v>
+        <v>4.6099</v>
       </c>
       <c r="C7">
-        <v>86.24720000000001</v>
+        <v>44.5612</v>
       </c>
       <c r="D7">
-        <v>8.998900000000001</v>
+        <v>6.4936</v>
       </c>
       <c r="E7">
-        <v>0.8716</v>
+        <v>0.9367</v>
       </c>
       <c r="F7">
-        <v>0.1485</v>
+        <v>0.1157</v>
       </c>
       <c r="G7">
-        <v>0.1031</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2567,22 +2567,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.2527</v>
+        <v>0.965</v>
       </c>
       <c r="C8">
-        <v>39.8303</v>
+        <v>21.5454</v>
       </c>
       <c r="D8">
-        <v>2.295</v>
+        <v>1.5476</v>
       </c>
       <c r="E8">
-        <v>0.0582</v>
+        <v>0.0288</v>
       </c>
       <c r="F8">
-        <v>0.0339</v>
+        <v>0.0362</v>
       </c>
       <c r="G8">
-        <v>0.0165</v>
+        <v>0.0223</v>
       </c>
     </row>
   </sheetData>
@@ -2629,22 +2629,22 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>5.7851</v>
+        <v>4.991</v>
       </c>
       <c r="D2">
-        <v>67.26349999999999</v>
+        <v>45.6895</v>
       </c>
       <c r="E2">
-        <v>8.2014</v>
+        <v>6.7594</v>
       </c>
       <c r="F2">
-        <v>0.8816000000000001</v>
+        <v>0.9077</v>
       </c>
       <c r="G2">
-        <v>0.1353</v>
+        <v>0.112</v>
       </c>
       <c r="H2">
-        <v>0.09959999999999999</v>
+        <v>0.0853</v>
       </c>
     </row>
   </sheetData>
